--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Bin.Multi.Protein.RANK.Symptoms.MODEL2.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Bin.Multi.Protein.RANK.Symptoms.MODEL2.xlsx
@@ -401,7 +401,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -464,31 +464,31 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.306292927201607</v>
+        <v>0.306292927201627</v>
       </c>
       <c r="E2" t="n">
-        <v>0.112242045035408</v>
+        <v>0.112242045035404</v>
       </c>
       <c r="F2" t="n">
-        <v>1.35838015477222</v>
+        <v>1.35838015477225</v>
       </c>
       <c r="G2" t="n">
-        <v>1.09013170468966</v>
+        <v>1.09013170468969</v>
       </c>
       <c r="H2" t="n">
-        <v>1.69263643735992</v>
+        <v>1.69263643735995</v>
       </c>
       <c r="I2" t="n">
-        <v>2.72886089259139</v>
+        <v>2.72886089259166</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00635535068092501</v>
+        <v>0.00635535068091984</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0741791862046712</v>
+        <v>0.0741791862046711</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0506236577239034</v>
+        <v>0.0506236577239033</v>
       </c>
       <c r="M2" t="n">
         <v>0.100527719308669</v>
@@ -514,34 +514,34 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.348714817070895</v>
+        <v>0.348714817070927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.129319099019144</v>
+        <v>0.129319099019182</v>
       </c>
       <c r="F3" t="n">
-        <v>1.41724495863617</v>
+        <v>1.41724495863622</v>
       </c>
       <c r="G3" t="n">
-        <v>1.09993312554085</v>
+        <v>1.0999331255408</v>
       </c>
       <c r="H3" t="n">
-        <v>1.82609581086305</v>
+        <v>1.82609581086324</v>
       </c>
       <c r="I3" t="n">
-        <v>2.69654536503747</v>
+        <v>2.69654536503692</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00700628535527107</v>
+        <v>0.00700628535528262</v>
       </c>
       <c r="K3" t="n">
-        <v>0.056470505718086</v>
+        <v>0.0564705057180869</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0489134698616818</v>
+        <v>0.0489134698616825</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0831078228170302</v>
+        <v>0.0831078228170315</v>
       </c>
       <c r="N3" t="n">
         <v>2423</v>
